--- a/plan_financiero.xlsx
+++ b/plan_financiero.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Desktop\DAW2\EIE\Plan financiero\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\Proyecto_final_GS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D26CCC-64FF-4BC2-9E21-6D16BDC835A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561454D3-5C69-41ED-BA74-8706BD86BFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,6 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1396,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="B41" zoomScale="65" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.58203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1524,44 +1511,44 @@
         <v>19</v>
       </c>
       <c r="B4" s="6">
-        <v>2730</v>
+        <v>2850</v>
       </c>
       <c r="C4" s="6">
-        <v>2620</v>
+        <v>2720</v>
       </c>
       <c r="D4" s="6">
-        <v>2940</v>
+        <v>3040</v>
       </c>
       <c r="E4" s="6">
-        <v>3060</v>
+        <v>3160</v>
       </c>
       <c r="F4" s="15">
-        <v>3220</v>
+        <v>3320</v>
       </c>
       <c r="G4" s="15">
-        <v>3250</v>
+        <v>3420</v>
       </c>
       <c r="H4" s="15">
-        <v>3470</v>
+        <v>3570</v>
       </c>
       <c r="I4" s="15">
-        <v>3680</v>
+        <v>3780</v>
       </c>
       <c r="J4" s="15">
-        <v>3630</v>
+        <v>3730</v>
       </c>
       <c r="K4" s="15">
-        <v>3820</v>
+        <v>3920</v>
       </c>
       <c r="L4" s="15">
-        <v>4040</v>
+        <v>4140</v>
       </c>
       <c r="M4" s="15">
         <v>4210</v>
       </c>
       <c r="N4" s="12">
         <f>SUM(B4:M4)</f>
-        <v>40670</v>
+        <v>41860</v>
       </c>
       <c r="O4" s="4"/>
       <c r="Q4" s="13" t="s">
@@ -1601,47 +1588,47 @@
       </c>
       <c r="B6" s="16">
         <f t="shared" ref="B6:N6" si="1">SUM(B2,B3,B4,B5)</f>
-        <v>7968.92</v>
+        <v>8088.92</v>
       </c>
       <c r="C6" s="16">
         <f>SUM(C2,C3,C4,C5)</f>
-        <v>2620</v>
+        <v>2720</v>
       </c>
       <c r="D6" s="16">
         <f t="shared" si="1"/>
-        <v>2940</v>
+        <v>3040</v>
       </c>
       <c r="E6" s="16">
         <f t="shared" si="1"/>
-        <v>3060</v>
+        <v>3160</v>
       </c>
       <c r="F6" s="16">
         <f t="shared" si="1"/>
-        <v>3220</v>
+        <v>3320</v>
       </c>
       <c r="G6" s="16">
         <f t="shared" si="1"/>
-        <v>3250</v>
+        <v>3420</v>
       </c>
       <c r="H6" s="16">
         <f t="shared" si="1"/>
-        <v>3470</v>
+        <v>3570</v>
       </c>
       <c r="I6" s="16">
         <f t="shared" si="1"/>
-        <v>3680</v>
+        <v>3780</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" si="1"/>
-        <v>3630</v>
+        <v>3730</v>
       </c>
       <c r="K6" s="16">
         <f t="shared" si="1"/>
-        <v>3820</v>
+        <v>3920</v>
       </c>
       <c r="L6" s="16">
         <f t="shared" si="1"/>
-        <v>4040</v>
+        <v>4140</v>
       </c>
       <c r="M6" s="16">
         <f t="shared" si="1"/>
@@ -1649,7 +1636,7 @@
       </c>
       <c r="N6" s="17">
         <f t="shared" si="1"/>
-        <v>45908.92</v>
+        <v>47098.92</v>
       </c>
       <c r="O6" s="18"/>
       <c r="Q6" s="13" t="s">
@@ -2434,55 +2421,55 @@
       </c>
       <c r="B27" s="38">
         <f t="shared" ref="B27:N27" si="5">SUM(B6-B26)</f>
-        <v>2953.1800000000003</v>
+        <v>3073.1800000000003</v>
       </c>
       <c r="C27" s="38">
         <f>SUM(C6-C26)</f>
-        <v>-753.52999999999975</v>
+        <v>-653.52999999999975</v>
       </c>
       <c r="D27" s="38">
         <f t="shared" si="5"/>
-        <v>-433.52999999999975</v>
+        <v>-333.52999999999975</v>
       </c>
       <c r="E27" s="38">
         <f t="shared" si="5"/>
-        <v>-313.52999999999975</v>
+        <v>-213.52999999999975</v>
       </c>
       <c r="F27" s="38">
         <f t="shared" si="5"/>
-        <v>-153.52999999999975</v>
+        <v>-53.529999999999745</v>
       </c>
       <c r="G27" s="38">
         <f t="shared" si="5"/>
-        <v>-123.52999999999975</v>
+        <v>46.470000000000255</v>
       </c>
       <c r="H27" s="38">
         <f t="shared" si="5"/>
-        <v>96.470000000000255</v>
+        <v>196.47000000000025</v>
       </c>
       <c r="I27" s="38">
         <f t="shared" si="5"/>
-        <v>306.47000000000025</v>
+        <v>406.47000000000025</v>
       </c>
       <c r="J27" s="38">
         <f t="shared" si="5"/>
-        <v>256.47000000000025</v>
+        <v>356.47000000000025</v>
       </c>
       <c r="K27" s="38">
         <f t="shared" si="5"/>
-        <v>446.47000000000025</v>
+        <v>546.47000000000025</v>
       </c>
       <c r="L27" s="38">
         <f t="shared" si="5"/>
-        <v>666.47000000000025</v>
+        <v>766.47000000000025</v>
       </c>
       <c r="M27" s="38">
         <f t="shared" si="5"/>
         <v>-2297.41</v>
       </c>
       <c r="N27" s="39">
-        <f t="shared" si="5"/>
-        <v>650.47000000000116</v>
+        <f>SUM(N6-N26)</f>
+        <v>1840.4700000000012</v>
       </c>
       <c r="O27" s="18"/>
       <c r="Q27" s="4"/>
@@ -2501,54 +2488,54 @@
       </c>
       <c r="B28" s="43">
         <f>SUM(B6-B26)</f>
-        <v>2953.1800000000003</v>
+        <v>3073.1800000000003</v>
       </c>
       <c r="C28" s="44">
         <f t="shared" ref="C28:M28" si="6">SUM(B28,C27)</f>
-        <v>2199.6500000000005</v>
+        <v>2419.6500000000005</v>
       </c>
       <c r="D28" s="43">
         <f t="shared" si="6"/>
-        <v>1766.1200000000008</v>
+        <v>2086.1200000000008</v>
       </c>
       <c r="E28" s="43">
         <f t="shared" si="6"/>
-        <v>1452.5900000000011</v>
+        <v>1872.5900000000011</v>
       </c>
       <c r="F28" s="43">
         <f t="shared" si="6"/>
-        <v>1299.0600000000013</v>
+        <v>1819.0600000000013</v>
       </c>
       <c r="G28" s="43">
         <f t="shared" si="6"/>
-        <v>1175.5300000000016</v>
+        <v>1865.5300000000016</v>
       </c>
       <c r="H28" s="43">
         <f t="shared" si="6"/>
-        <v>1272.0000000000018</v>
+        <v>2062.0000000000018</v>
       </c>
       <c r="I28" s="43">
         <f t="shared" si="6"/>
-        <v>1578.4700000000021</v>
+        <v>2468.4700000000021</v>
       </c>
       <c r="J28" s="43">
         <f t="shared" si="6"/>
-        <v>1834.9400000000023</v>
+        <v>2824.9400000000023</v>
       </c>
       <c r="K28" s="43">
         <f t="shared" si="6"/>
-        <v>2281.4100000000026</v>
+        <v>3371.4100000000026</v>
       </c>
       <c r="L28" s="43">
         <f t="shared" si="6"/>
-        <v>2947.8800000000028</v>
+        <v>4137.8800000000028</v>
       </c>
       <c r="M28" s="43">
         <f t="shared" si="6"/>
-        <v>650.47000000000298</v>
+        <v>1840.470000000003</v>
       </c>
       <c r="N28" s="45">
-        <v>1025.51</v>
+        <v>1840.47</v>
       </c>
       <c r="O28" s="4"/>
       <c r="U28" s="4"/>
@@ -2603,7 +2590,7 @@
       </c>
       <c r="R30" s="53">
         <f>H47</f>
-        <v>1025.51</v>
+        <v>1840.47</v>
       </c>
       <c r="S30" s="52" t="s">
         <v>64</v>
@@ -2643,7 +2630,7 @@
       </c>
       <c r="R31" s="55">
         <f>SUM(R30-T30)</f>
-        <v>1025.51</v>
+        <v>1840.47</v>
       </c>
       <c r="S31" s="56" t="s">
         <v>67</v>
@@ -2739,7 +2726,7 @@
       </c>
       <c r="J36" s="62">
         <f>SUM(J37:J39)</f>
-        <v>1495.705399999998</v>
+        <v>2685.705399999998</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -2753,7 +2740,7 @@
       </c>
       <c r="B37" s="14">
         <f>N4</f>
-        <v>40670</v>
+        <v>41860</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>78</v>
@@ -2808,7 +2795,7 @@
       </c>
       <c r="J38" s="14">
         <f>D58</f>
-        <v>-743.21460000000195</v>
+        <v>446.78539999999805</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -3057,7 +3044,7 @@
       </c>
       <c r="H47" s="62">
         <f>SUM(H48,H53,H55,H57)</f>
-        <v>1025.51</v>
+        <v>1840.47</v>
       </c>
       <c r="I47" s="62" t="s">
         <v>94</v>
@@ -3237,7 +3224,7 @@
       </c>
       <c r="B55" s="67">
         <f>N4</f>
-        <v>40670</v>
+        <v>41860</v>
       </c>
       <c r="C55" s="67">
         <f>D53</f>
@@ -3245,7 +3232,7 @@
       </c>
       <c r="D55" s="67">
         <f>SUM(B55-D53)</f>
-        <v>-609.33460000000196</v>
+        <v>580.66539999999804</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -3291,7 +3278,7 @@
       </c>
       <c r="H57" s="14">
         <f>N28</f>
-        <v>1025.51</v>
+        <v>1840.47</v>
       </c>
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
@@ -3304,7 +3291,7 @@
       <c r="C58" s="67"/>
       <c r="D58" s="67">
         <f>SUM(D55,D57)</f>
-        <v>-743.21460000000195</v>
+        <v>446.78539999999805</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -3313,14 +3300,14 @@
       </c>
       <c r="H58" s="62">
         <f>SUM(H36,H57)</f>
-        <v>1870.7454</v>
+        <v>2685.7053999999998</v>
       </c>
       <c r="I58" s="62" t="s">
         <v>13</v>
       </c>
       <c r="J58" s="62">
         <f>SUM(J36+J43+J47)</f>
-        <v>1495.705399999998</v>
+        <v>2685.705399999998</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
